--- a/timeTable_CE.xlsx
+++ b/timeTable_CE.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Python\tempWorkSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drlak\my_learning\python_WhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC45DEF-2CBB-43CC-BB14-F088AD319EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9753E-736D-4994-9B36-C1F6BDBC6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3510" windowWidth="15315" windowHeight="7800" xr2:uid="{7BEB5D9E-8563-4ED7-B850-B47E02154E05}"/>
+    <workbookView xWindow="990" yWindow="5100" windowWidth="17925" windowHeight="10305" activeTab="7" xr2:uid="{7BEB5D9E-8563-4ED7-B850-B47E02154E05}"/>
   </bookViews>
   <sheets>
-    <sheet name="s1" sheetId="1" r:id="rId1"/>
-    <sheet name="s2" sheetId="2" r:id="rId2"/>
-    <sheet name="s3" sheetId="3" r:id="rId3"/>
-    <sheet name="s4" sheetId="4" r:id="rId4"/>
-    <sheet name="s5" sheetId="6" r:id="rId5"/>
-    <sheet name="s6" sheetId="7" r:id="rId6"/>
-    <sheet name="s7" sheetId="8" r:id="rId7"/>
-    <sheet name="s8" sheetId="9" r:id="rId8"/>
+    <sheet name="s2" sheetId="2" r:id="rId1"/>
+    <sheet name="s3" sheetId="3" r:id="rId2"/>
+    <sheet name="s4" sheetId="4" r:id="rId3"/>
+    <sheet name="s5" sheetId="6" r:id="rId4"/>
+    <sheet name="s6" sheetId="7" r:id="rId5"/>
+    <sheet name="s7" sheetId="8" r:id="rId6"/>
+    <sheet name="s8" sheetId="10" r:id="rId7"/>
+    <sheet name="s1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="79">
   <si>
     <t>monday</t>
   </si>
@@ -172,15 +172,6 @@
     <t>fri_sx[]</t>
   </si>
   <si>
-    <t>tue_s1[1]</t>
-  </si>
-  <si>
-    <t>wed_s1[1]</t>
-  </si>
-  <si>
-    <t>fri_s1[1]</t>
-  </si>
-  <si>
     <t>mon_s1[2]</t>
   </si>
   <si>
@@ -284,6 +275,9 @@
   </si>
   <si>
     <t>GAMAT101</t>
+  </si>
+  <si>
+    <t>fri_</t>
   </si>
 </sst>
 </file>
@@ -637,193 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2FF754-53A3-456E-8EC4-F40BFA0EB238}">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C110C39-E9A8-412D-BA79-F791A8C11156}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -885,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -911,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -937,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -963,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -989,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016073B4-58F2-46EA-95FF-CB5DF214BB37}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1030,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1056,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1082,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1108,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1134,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1160,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97E712-1FDA-4609-8BB8-057B439A0A11}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1201,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1227,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1253,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1279,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1305,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1331,7 +1143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C21AB53-9624-4622-BF1F-49EF41960459}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1372,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1398,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1424,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1450,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1476,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1502,7 +1314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD63D9-991E-46ED-979E-9B38925B6A2E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1543,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1569,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1595,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1621,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1647,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1674,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D549B-B3E8-407F-8594-6DBABB4D89B9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1715,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1741,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1767,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1793,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1819,7 +1631,178 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87137F95-148D-4C17-B108-2A89A5250921}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1846,17 +1829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5407EBD7-2E39-401C-A46B-5C53E0C7EE30}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0B6DC3-B0AA-4B01-9AF5-7CF73855FAAF}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1889,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1915,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1941,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1967,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1993,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -2008,19 +1988,12 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timeTable_CE.xlsx
+++ b/timeTable_CE.xlsx
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAPHT121</t>
+          <t>GAMAT101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAMAT101</t>
+          <t>GAPHT121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GMEST103</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAMAT101</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GMEST103</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAPHT121</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GXEST104</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>GAMAT101</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2558,12 +2558,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAPHT121</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GXEST104</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
